--- a/biology/Botanique/Forêt_de_Choqueuse/Forêt_de_Choqueuse.xlsx
+++ b/biology/Botanique/Forêt_de_Choqueuse/Forêt_de_Choqueuse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Choqueuse</t>
+          <t>Forêt_de_Choqueuse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La forêt de Choqueuse est un massif forestier de 445 hectares de forêt domaniale, situé en Seine-et-Marne et en totalité sur le territoire de la commune de Jouarre.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Choqueuse</t>
+          <t>Forêt_de_Choqueuse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,15 +528,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Géographie physique
-La forêt de Choqueuse est située sur le plateau de la Brie entre Coulommiers au sud de La Ferté-sous-Jouarre au nord.
-Géographie administrative
-La forêt s'étend sur la seule commune de Jouarre en Seine-et-Marne.
-Elle se prolonge au sud-est par le Bois départemental de Doue, commune de Doue.
-Géologie, relief et hydrographie
-Accès
-Aire d'accueil au lieu-dit la Fringale, RD 402.
-Bus 41 du réseau de bus Brie et 2 Morin (Coulommiers - La Ferté-sous-Jouarre).</t>
+          <t>Géographie physique</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La forêt de Choqueuse est située sur le plateau de la Brie entre Coulommiers au sud de La Ferté-sous-Jouarre au nord.
+</t>
         </is>
       </c>
     </row>
@@ -534,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Choqueuse</t>
+          <t>Forêt_de_Choqueuse</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,10 +560,87 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Géographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Géographie administrative</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La forêt s'étend sur la seule commune de Jouarre en Seine-et-Marne.
+Elle se prolonge au sud-est par le Bois départemental de Doue, commune de Doue.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Forêt_de_Choqueuse</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/For%C3%AAt_de_Choqueuse</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Géographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Accès</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Aire d'accueil au lieu-dit la Fringale, RD 402.
+Bus 41 du réseau de bus Brie et 2 Morin (Coulommiers - La Ferté-sous-Jouarre).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Forêt_de_Choqueuse</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/For%C3%AAt_de_Choqueuse</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Propriété de l'abbaye de Jouarre, cette zone boisée fut cédée à des serfs afin de la défricher et de la mettre en culture, ce qui explique la création de la vaste clairière située au milieu de la forêt où se trouve la ferme de Choqueuse.
 Elle devient bien national à la suite de la Révolution en 1790.
@@ -561,75 +649,13 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>For%C3%AAt_de_Choqueuse</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/For%C3%AAt_de_Choqueuse</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Faune et flore</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Flore
-La forêt de Choqueuse est constituée de chênes, de charmes, de quelques hêtres et de quelques frênes principalement.
-Faune
-La faune est pour l'essentiel constituée de renards, sangliers, chevreuils, faisans introduit en 1983, lapins, lièvres, bécasses, etc.
-La chasse
-La chasse en forêt de Choqueuse s'y pratique le vendredi.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>For%C3%AAt_de_Choqueuse</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/For%C3%AAt_de_Choqueuse</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Gestion forestière</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
-    </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Choqueuse</t>
+          <t>Forêt_de_Choqueuse</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -644,10 +670,151 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Faune et flore</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Flore</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La forêt de Choqueuse est constituée de chênes, de charmes, de quelques hêtres et de quelques frênes principalement.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Forêt_de_Choqueuse</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/For%C3%AAt_de_Choqueuse</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Faune et flore</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Faune</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La faune est pour l'essentiel constituée de renards, sangliers, chevreuils, faisans introduit en 1983, lapins, lièvres, bécasses, etc.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Forêt_de_Choqueuse</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/For%C3%AAt_de_Choqueuse</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Faune et flore</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>La chasse</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chasse en forêt de Choqueuse s'y pratique le vendredi.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Forêt_de_Choqueuse</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/For%C3%AAt_de_Choqueuse</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Gestion forestière</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Forêt_de_Choqueuse</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/For%C3%AAt_de_Choqueuse</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Gestion administrative</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Forêt domaniale, le massif est la propriété de l'État français, qui en délègue la gestion à l'office national des forêts. L'État assure le financement de l'entretien mais les collectivités locales sont également associées aux décisions.
 </t>
